--- a/data/trans_dic/Q45B_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Q45B_R-Habitat-trans_dic.xlsx
@@ -678,28 +678,28 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.00713915509272449</v>
+        <v>0.007320077496136525</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.007180531461325233</v>
+        <v>0.007371431872879257</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03379947341232415</v>
+        <v>0.03430651179106354</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02112095183190572</v>
+        <v>0.02186343320546062</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02204243296011674</v>
+        <v>0.02134912904495652</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01877908748119862</v>
+        <v>0.01831847985465067</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0165195797717673</v>
+        <v>0.01699451246349822</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01602837243192037</v>
+        <v>0.01658071967607169</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01254633545623405</v>
+        <v>0.01651082747204596</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02441574764601938</v>
+        <v>0.02567519307938121</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0251309702157711</v>
+        <v>0.02743660756959306</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06521672799530331</v>
+        <v>0.06497469862586475</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05100138054079922</v>
+        <v>0.05182664560689892</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04957552135898344</v>
+        <v>0.04920565248665885</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03563066262531461</v>
+        <v>0.03537881785066047</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03386237169132739</v>
+        <v>0.0341198496865862</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03257487509302355</v>
+        <v>0.03309547945005074</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.009590827883236647</v>
+        <v>0.009797663658157532</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.008602946399952642</v>
+        <v>0.008263454527350455</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.002951615352010831</v>
+        <v>0.002951091443121643</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06899290177419698</v>
+        <v>0.06979377066815196</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05896332138258875</v>
+        <v>0.05811461758565281</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02715039488713757</v>
+        <v>0.02754899071323428</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0420832041150293</v>
+        <v>0.0433623854732876</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03695336159138634</v>
+        <v>0.03644881867804836</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01683343439562439</v>
+        <v>0.01609998614959037</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02636630493520278</v>
+        <v>0.02726848544737439</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02528681255206076</v>
+        <v>0.02574891848963351</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01374690529545642</v>
+        <v>0.01393844068703852</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1061147524495508</v>
+        <v>0.1044932314415636</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09402983449600405</v>
+        <v>0.09230794851472741</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04959671703688893</v>
+        <v>0.04916756380439977</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.06326660275053068</v>
+        <v>0.06284662251362184</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05605555219582814</v>
+        <v>0.05575974814262737</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02878419684921032</v>
+        <v>0.02860649834645204</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.009437812957397327</v>
+        <v>0.009779943768830365</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0226860508010344</v>
+        <v>0.02285827756004682</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.00148117590312727</v>
+        <v>0.001479987193840115</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04193536656330427</v>
+        <v>0.04207482398620229</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05444751540043914</v>
+        <v>0.05315224746720765</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.020858654715926</v>
+        <v>0.02050144269924578</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02942920755492742</v>
+        <v>0.0298582029107312</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04133852710072269</v>
+        <v>0.04322109341323566</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01291642948615581</v>
+        <v>0.01243836997654722</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03381225646782904</v>
+        <v>0.03424210285855188</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05103292898654939</v>
+        <v>0.05296726403471486</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01504054113912372</v>
+        <v>0.0140050653508495</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07735558807334461</v>
+        <v>0.07614469833662088</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.09383775762434546</v>
+        <v>0.09205680596577101</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04689018031129508</v>
+        <v>0.0475262784417893</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04994755931395279</v>
+        <v>0.05078755988180706</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06630554393838341</v>
+        <v>0.06692497472348015</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02753650509818294</v>
+        <v>0.02642180306490242</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02621504776656517</v>
+        <v>0.02564525063369459</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02451158972813625</v>
+        <v>0.02447769582759977</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.006065926862408153</v>
+        <v>0.006059612103475655</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08578553976281453</v>
+        <v>0.08583200415151843</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08496573108053679</v>
+        <v>0.08554501727540723</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02804275973899821</v>
+        <v>0.02671262479821858</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05953294818400581</v>
+        <v>0.05971370707060562</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05954635523804401</v>
+        <v>0.05906055150245244</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01877217973150687</v>
+        <v>0.01956136578990155</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05068171308089777</v>
+        <v>0.04950177207247243</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04858459813181629</v>
+        <v>0.04815260442146398</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02035455067922148</v>
+        <v>0.01919252870474136</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1249809440135371</v>
+        <v>0.1242641254832737</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1213543386156572</v>
+        <v>0.1211186433207974</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05297659656201349</v>
+        <v>0.05142595987223293</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.08304503416059426</v>
+        <v>0.08413268523795736</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08314585996679177</v>
+        <v>0.08270175310424104</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03352625001829835</v>
+        <v>0.03433721202943959</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01548822130009274</v>
+        <v>0.01551058021790936</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01955178712843714</v>
+        <v>0.01992350316776292</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.006420311094387732</v>
+        <v>0.00665074093178796</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06875888371794873</v>
+        <v>0.0688852891732273</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06576090582617035</v>
+        <v>0.06621803532518303</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02957784767489845</v>
+        <v>0.02962323179703668</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04489091120795585</v>
+        <v>0.04426547535522569</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04516282114549398</v>
+        <v>0.04443287013788803</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01960697752991314</v>
+        <v>0.0189353624808998</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02509985661187526</v>
+        <v>0.02567120914193067</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03115675152898698</v>
+        <v>0.03095991099073343</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01328254132440556</v>
+        <v>0.01342003245338062</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.08861432677000511</v>
+        <v>0.08793568542389285</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08321669863167985</v>
+        <v>0.08397565267401735</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04181434921630945</v>
+        <v>0.04141348628218721</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05519352739341961</v>
+        <v>0.0551809956463087</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.05529510901595711</v>
+        <v>0.05547170867555551</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.02694322867166246</v>
+        <v>0.02649845076267652</v>
       </c>
     </row>
     <row r="19">
@@ -1402,28 +1402,28 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5007</v>
+        <v>5134</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4845</v>
+        <v>4974</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>23266</v>
+        <v>23615</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>14702</v>
+        <v>15219</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>14751</v>
+        <v>14287</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>25960</v>
+        <v>25323</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>23085</v>
+        <v>23749</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>21542</v>
+        <v>22284</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>8707</v>
+        <v>11459</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>17124</v>
+        <v>18008</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>16958</v>
+        <v>18514</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>44892</v>
+        <v>44725</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>35502</v>
+        <v>36076</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>33176</v>
+        <v>32928</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>49255</v>
+        <v>48906</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>47321</v>
+        <v>47681</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>43781</v>
+        <v>44480</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>9224</v>
+        <v>9423</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>8705</v>
+        <v>8361</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>2997</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>66812</v>
+        <v>67588</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>60598</v>
+        <v>59726</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>28288</v>
+        <v>28703</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>81229</v>
+        <v>83698</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>75368</v>
+        <v>74339</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>34633</v>
+        <v>33124</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>25359</v>
+        <v>26227</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>25586</v>
+        <v>26053</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>13960</v>
+        <v>14154</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>102761</v>
+        <v>101191</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>96637</v>
+        <v>94867</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>51675</v>
+        <v>51228</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>122117</v>
+        <v>121306</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>114327</v>
+        <v>113724</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>59220</v>
+        <v>58854</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6404</v>
+        <v>6636</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>17141</v>
+        <v>17271</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>28677</v>
+        <v>28772</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>42035</v>
+        <v>41035</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>16316</v>
+        <v>16036</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>40093</v>
+        <v>40677</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>63148</v>
+        <v>66024</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>19860</v>
+        <v>19125</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>22942</v>
+        <v>23234</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>38558</v>
+        <v>40020</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11362</v>
+        <v>10579</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>52899</v>
+        <v>52071</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>72445</v>
+        <v>71070</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>36677</v>
+        <v>37175</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>68046</v>
+        <v>69190</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>101287</v>
+        <v>102233</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>42340</v>
+        <v>40626</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>24700</v>
+        <v>24164</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>23162</v>
+        <v>23130</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5666</v>
+        <v>5660</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>89098</v>
+        <v>89146</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>89126</v>
+        <v>89734</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>29124</v>
+        <v>27743</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>117925</v>
+        <v>118283</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>118729</v>
+        <v>117760</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>37031</v>
+        <v>38588</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>47753</v>
+        <v>46642</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>45909</v>
+        <v>45500</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>19013</v>
+        <v>17928</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>129807</v>
+        <v>129062</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>127296</v>
+        <v>127049</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>55019</v>
+        <v>53409</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>164498</v>
+        <v>166653</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>165783</v>
+        <v>164898</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>66136</v>
+        <v>67735</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>50748</v>
+        <v>50821</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>66743</v>
+        <v>68012</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>21699</v>
+        <v>22478</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>232350</v>
+        <v>232777</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>233109</v>
+        <v>234730</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>104465</v>
+        <v>104625</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>298782</v>
+        <v>294620</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>314263</v>
+        <v>309184</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>135516</v>
+        <v>130874</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>82241</v>
+        <v>84113</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>106358</v>
+        <v>105686</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>44892</v>
+        <v>45357</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>299445</v>
+        <v>297152</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>294986</v>
+        <v>297677</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>147682</v>
+        <v>146266</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>367354</v>
+        <v>367270</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>384768</v>
+        <v>385997</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>186221</v>
+        <v>183147</v>
       </c>
     </row>
     <row r="24">
